--- a/data/density_experiment/densityexperiment_90mm_1-4.xlsx
+++ b/data/density_experiment/densityexperiment_90mm_1-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_13/data/density_experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DECD21-5530-7D4D-B4F4-80E7EA1B4869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661DA585-E79A-FA48-ABEE-216078D1CCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="25600" windowHeight="20480" xr2:uid="{35375D7D-051B-C949-8E73-C2A30DA4047D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{35375D7D-051B-C949-8E73-C2A30DA4047D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71285DAE-17C5-4542-BC3F-3A39FEC6BACC}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="187" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="187" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1719,6 +1719,300 @@
         <v>0</v>
       </c>
     </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>14</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>14</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>15</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>15</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>15</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>15</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>15</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>15</v>
+      </c>
+      <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>16</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>16</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>16</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>16</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>16</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
